--- a/public/data/soil/soil_table_djibouti.xlsx
+++ b/public/data/soil/soil_table_djibouti.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4139.9</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.746</v>
+        <v>2.548</v>
       </c>
     </row>
     <row r="3">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2051.4</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.194</v>
+        <v>2.253</v>
       </c>
     </row>
     <row r="4">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4818.9</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.64</v>
+        <v>3.954</v>
       </c>
     </row>
     <row r="5">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2454.4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.379</v>
+        <v>9.079</v>
       </c>
     </row>
     <row r="6">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>130.3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.043</v>
+        <v>1.199</v>
       </c>
     </row>
     <row r="7">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3439.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.847</v>
+        <v>11.736</v>
       </c>
     </row>
     <row r="8">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1171.9</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.399</v>
+        <v>8.738</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2302.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.914</v>
+        <v>5.444</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6691.8</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.18</v>
+        <v>17.658</v>
       </c>
     </row>
     <row r="11">
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>250.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.071</v>
       </c>
     </row>
     <row r="12">
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>54.1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.043</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="14">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>297.2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.052</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="15">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1547.3</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.601</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="16">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6162</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>4.159</v>
+        <v>17.288</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3269.9</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.521</v>
+        <v>13.632</v>
       </c>
     </row>
     <row r="18">
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>792.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.353</v>
+        <v>13.506</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>215.3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.168</v>
+        <v>1.412</v>
       </c>
     </row>
     <row r="21">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3680.1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.958</v>
+        <v>20.262</v>
       </c>
     </row>
     <row r="22">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7587.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>2.785</v>
+        <v>7.627</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_djibouti.xlsx
+++ b/public/data/soil/soil_table_djibouti.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1174.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3794.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
